--- a/URM Physical Items/URM-PhysicalItemsPost-A_20210622_Diff.xlsx
+++ b/URM Physical Items/URM-PhysicalItemsPost-A_20210622_Diff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omarc\Documents\UNICC 2021\URM Physical Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omarc\Documents\UNICC-2021\URM Physical Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710AAEA-B0E6-4253-A624-A0A793FAAB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB1B4EF-52B1-4096-BF18-EFD57EA468E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,9 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B142" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
